--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment_Pay.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MultiBillPayment_Pay.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="79">
   <si>
     <t>Case</t>
   </si>
@@ -222,37 +222,46 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>To verify that if total bill amount exceeds the available balance in account Multi_Bill</t>
-  </si>
-  <si>
-    <t>When valid bill details and consumer numbers are provided Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that if customer exceed the max bill count in bulk bill payment Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that when user selects PAID bill Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that when user selects Expired bill Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that when user selects the bill of 0 amount Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that when user selects the bill of negative amount Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that when user selects Inquired status bill Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that when allowed days after due date has passed against any particular consumer number Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify that if user select those bills that are not allowed for multi bill payment Multi_Bill</t>
-  </si>
-  <si>
-    <t>To verify limits of multi bill payment Multi_Bill</t>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>To verify that if total bill amount exceeds the available balance in account Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>When valid bill details and consumer numbers are provided Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that if customer exceed the max bill count in bulk bill payment Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that when user selects PAID bill Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that when user selects Expired bill Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that when user selects the bill of 0 amount Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that when user selects the bill of negative amount Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that when user selects Inquired status bill Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that when allowed days after due date has passed against any particular consumer number Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify that if user select those bills that are not allowed for multi bill payment Multi_Bill_Pay</t>
+  </si>
+  <si>
+    <t>To verify limits of multi bill payment Multi_Bill_Pay</t>
   </si>
 </sst>
 </file>
@@ -583,490 +592,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J12" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
